--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>8.081999999999997</v>
+        <v>8.2438</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.88519999999999</v>
+        <v>-21.8031</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.36089999999999</v>
+        <v>-11.2137</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.50699999999999</v>
+        <v>16.5157</v>
       </c>
     </row>
     <row r="7">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.84819999999999</v>
+        <v>-12.04049999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.7469</v>
+        <v>-21.6164</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.30690000000001</v>
+        <v>16.274</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.19719999999998</v>
+        <v>-20.38609999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.18189999999997</v>
+        <v>-20.22339999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,24 +842,24 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.5905</v>
+        <v>-12.42449999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.36660000000001</v>
+        <v>16.14859999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.9253</v>
+        <v>-22.0495</v>
       </c>
       <c r="B25" t="n">
-        <v>5.660399999999997</v>
+        <v>5.571999999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.44769999999999</v>
+        <v>-12.89869999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.04919999999996</v>
+        <v>-21.14269999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.996900000000003</v>
+        <v>6.141200000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.77349999999999</v>
+        <v>-20.60299999999999</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.24009999999999</v>
+        <v>15.80649999999999</v>
       </c>
     </row>
     <row r="31">
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.138099999999998</v>
+        <v>5.400899999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.67009999999999</v>
+        <v>16.62429999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>16.91610000000001</v>
+        <v>16.79250000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.653900000000002</v>
+        <v>9.573900000000007</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.29450000000001</v>
+        <v>16.5093</v>
       </c>
     </row>
     <row r="43">
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.4473</v>
+        <v>5.524100000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.19619999999999</v>
+        <v>-13.35539999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>4.971700000000001</v>
+        <v>5.191300000000004</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.681200000000002</v>
+        <v>4.700200000000002</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.4604</v>
+        <v>-21.55210000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.31390000000001</v>
+        <v>-10.3708</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.622799999999997</v>
+        <v>6.213299999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.6446</v>
+        <v>16.4255</v>
       </c>
     </row>
     <row r="56">
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.762599999999999</v>
+        <v>4.6976</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.0173</v>
+        <v>-22.0542</v>
       </c>
       <c r="B57" t="n">
-        <v>5.148299999999998</v>
+        <v>5.1033</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.81289999999998</v>
+        <v>-12.70319999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.16830000000002</v>
+        <v>16.14300000000002</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2194</v>
+        <v>-22.24970000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-13.22669999999999</v>
+        <v>-13.19009999999999</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-12.23109999999999</v>
+        <v>-12.1299</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>16.85140000000002</v>
+        <v>16.82850000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61049999999998</v>
+        <v>-21.62229999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,13 +1624,13 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.56719999999999</v>
+        <v>-12.5612</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>16.96330000000002</v>
+        <v>16.86710000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.239899999999995</v>
+        <v>8.394699999999998</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.3259</v>
+        <v>16.35130000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.80780000000001</v>
+        <v>-20.5483</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9625</v>
+        <v>-22.0459</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.2203</v>
+        <v>16.2133</v>
       </c>
     </row>
     <row r="84">
@@ -1896,13 +1896,13 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.20989999999999</v>
+        <v>-13.2638</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.52870000000001</v>
+        <v>16.70320000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.039899999999994</v>
+        <v>5.156499999999995</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.468700000000002</v>
+        <v>5.509600000000002</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.2819</v>
+        <v>-21.2933</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.190499999999994</v>
+        <v>5.233199999999993</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.90939999999998</v>
+        <v>-20.75439999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.2543</v>
+        <v>16.14279999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.3364</v>
+        <v>16.67890000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-11.55599999999999</v>
+        <v>-11.41839999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.22259999999998</v>
+        <v>-12.44259999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.42870000000001</v>
+        <v>-13.4799</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
